--- a/school mockup data/KMUTNB/form_student_2-2.xlsx
+++ b/school mockup data/KMUTNB/form_student_2-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D0072-8778-416A-A42B-E132F425F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABEF60-61CA-442B-97CD-5469F961D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="3555" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>index</t>
   </si>
@@ -286,16 +286,51 @@
   </si>
   <si>
     <t>1 ซอย ฉลองกรุง 1 แขวงลาดกระบัง เขตลาดกระบัง กรุงเทพมหานคร 10520</t>
+  </si>
+  <si>
+    <t>Henri Martin</t>
+  </si>
+  <si>
+    <t>henri-21@example.com</t>
+  </si>
+  <si>
+    <t>1693 ถ. พหลโยธิน แขวงจตุจักร เขตจตุจักร กรุงเทพมหานคร 10900</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>34111</t>
+  </si>
+  <si>
+    <t>another henri child</t>
+  </si>
+  <si>
+    <t>Serine Martin</t>
+  </si>
+  <si>
+    <t>serine-21@example.com</t>
+  </si>
+  <si>
+    <t>weiwu-22@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,10 +435,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,8 +468,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,29 +752,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="62.19921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="4"/>
+    <col min="2" max="2" width="13.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="62.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -804,7 +844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -839,7 +879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -874,7 +914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -909,7 +949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -944,7 +984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -979,7 +1019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -998,8 +1038,8 @@
       <c r="F8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
+      <c r="G8" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>57</v>
@@ -1014,7 +1054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1049,7 +1089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1084,7 +1124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1119,8 +1159,46 @@
         <v>86</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{C9435E81-37B5-47FF-AA7B-DD43250E3EAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>